--- a/data/output/FV2304_FV2210/QUOTES/15001.xlsx
+++ b/data/output/FV2304_FV2210/QUOTES/15001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="447">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5009" uniqueCount="447">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1459,6 +1459,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U229" totalsRowShown="0">
+  <autoFilter ref="A1:U229"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1748,7 +1778,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12378,5 +12411,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/QUOTES/15001.xlsx
+++ b/data/output/FV2304_FV2210/QUOTES/15001.xlsx
@@ -2551,7 +2551,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5883,7 +5883,7 @@
         <v>426</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5983,7 +5983,7 @@
         <v>427</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6191,7 +6191,7 @@
         <v>427</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6449,7 +6449,7 @@
         <v>429</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6653,7 +6653,7 @@
         <v>430</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6935,7 +6935,7 @@
         <v>431</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -8097,7 +8097,7 @@
         <v>434</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -9277,7 +9277,7 @@
         <v>435</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9485,7 +9485,7 @@
         <v>435</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9637,7 +9637,7 @@
         <v>436</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10087,7 +10087,7 @@
         <v>438</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10429,7 +10429,7 @@
         <v>439</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10933,7 +10933,7 @@
         <v>440</v>
       </c>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11221,7 +11221,7 @@
         <v>441</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11359,7 +11359,7 @@
         <v>442</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11497,7 +11497,7 @@
         <v>431</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11951,7 +11951,7 @@
         <v>431</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12239,7 +12239,7 @@
         <v>427</v>
       </c>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -12431,7 +12431,7 @@
         <v>427</v>
       </c>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -12623,7 +12623,7 @@
         <v>445</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -12809,7 +12809,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13095,7 +13095,7 @@
         <v>446</v>
       </c>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -13435,7 +13435,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N222" s="2"/>
@@ -13521,7 +13521,7 @@
         <v>447</v>
       </c>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N224" s="2"/>
@@ -13661,7 +13661,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N227" s="2"/>
